--- a/mCovid Plan.xlsx
+++ b/mCovid Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lengocthanhnhan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/Documents/NMB/ga-mcovid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B17B6C7-9B51-F440-BC49-E2DC134605BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C69BF6-19C8-4841-9D2F-6C3717777D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="1000" windowWidth="32180" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="460" windowWidth="23900" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="hidden" r:id="rId1"/>
@@ -20,26 +20,18 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="94">
   <si>
     <t>Project</t>
   </si>
@@ -300,6 +292,27 @@
   </si>
   <si>
     <t>Site langugae</t>
+  </si>
+  <si>
+    <t>API chưa có</t>
+  </si>
+  <si>
+    <t>Group chưa được cập nhật.</t>
+  </si>
+  <si>
+    <t>API pagination có vấn đề(take: 5, skip: 0) chỉ có 4 record</t>
+  </si>
+  <si>
+    <t>Chưa có enroll</t>
+  </si>
+  <si>
+    <t>Chưa có edit user</t>
+  </si>
+  <si>
+    <t>Chưa check</t>
+  </si>
+  <si>
+    <t>Chưa có</t>
   </si>
 </sst>
 </file>
@@ -446,23 +459,6 @@
   </cellStyles>
   <dxfs count="39">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4" tint="0.39994506668294322"/>
@@ -602,195 +598,6 @@
         <bottom/>
       </border>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="ddd\ dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="ddd\ dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="1"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -917,6 +724,195 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="ddd\ dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="ddd\ dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="1"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -962,6 +958,23 @@
         <horizontal/>
       </border>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="ddd\ dd/mm/yyyy"/>
@@ -2028,7 +2041,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="No.">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="No.">
   <location ref="C9:E25" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -2268,28 +2281,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblPlan" displayName="tblPlan" ref="A1:K50" totalsRowCount="1" headerRowDxfId="37" dataDxfId="36" totalsRowDxfId="34" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblPlan" displayName="tblPlan" ref="A1:K50" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33" totalsRowDxfId="31" tableBorderDxfId="32">
   <autoFilter ref="A1:K49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Lv1." totalsRowLabel="Finish" dataDxfId="24" totalsRowDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Lv1." totalsRowLabel="Finish" dataDxfId="30" totalsRowDxfId="10">
       <calculatedColumnFormula>COUNTA(OFFSET(tblPlan[[#Headers],[Task]],1,0,ROW()-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Lv2." dataDxfId="23" totalsRowDxfId="12">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Lv2." dataDxfId="29" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(tblPlan[[#This Row],[Task]]&lt;&gt;"",0,OFFSET(tblPlan[[#This Row],[No.]],-1,-1)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="No." dataDxfId="22" totalsRowDxfId="11">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="No." dataDxfId="28" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(tblPlan[[#This Row],[Task]]&lt;&gt;"",tblPlan[[#This Row],[Lv1.]],tblPlan[[#This Row],[Lv1.]]&amp;"."&amp;tblPlan[[#This Row],[Lv2.]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Task" dataDxfId="21" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Detail" dataDxfId="20" totalsRowDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Efforts(mds)" dataDxfId="19" totalsRowDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Start" dataDxfId="18" totalsRowDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Finish" totalsRowFunction="max" dataDxfId="17" totalsRowDxfId="6">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Task" dataDxfId="27" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Detail" dataDxfId="26" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Efforts(mds)" dataDxfId="25" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Start" dataDxfId="24" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Finish" totalsRowFunction="max" dataDxfId="23" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(tblPlan[[#This Row],[Task]]&lt;&gt;"",MAX(OFFSET(tblPlan[[#This Row],[Start]],1,1,COUNTIF(tblPlan[Lv1.],tblPlan[[#This Row],[Lv1.]])-1)),IF(tblPlan[[#This Row],[Start]]&lt;&gt;"",WORKDAY.INTL(tblPlan[[#This Row],[Start]],tblPlan[[#This Row],[Efforts(mds)]]-NETWORKDAYS.INTL(tblPlan[[#This Row],[Start]],tblPlan[[#This Row],[Start]],11,tblHoliday[Date]),11,tblHoliday[Date]),""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Resource" dataDxfId="16" totalsRowDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="%Complete" dataDxfId="15" totalsRowDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Comment" dataDxfId="14" totalsRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Resource" dataDxfId="22" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="%Complete" dataDxfId="21" totalsRowDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Comment" dataDxfId="20" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2299,24 +2312,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tblHoliday" displayName="tblHoliday" ref="A1:C3" totalsRowShown="0">
   <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="No." dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="No." dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tblResources" displayName="tblResources" ref="A1:D4" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tblResources" displayName="tblResources" ref="A1:D4" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="No." dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="No." dataDxfId="14">
       <calculatedColumnFormula>ROW()-ROW(tblResources[[#Headers],[No.]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Account" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Fullname" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Account" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Fullname" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2832,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="A46:XFD46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3210,7 +3223,7 @@
       </c>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <f ca="1">COUNTA(OFFSET(tblPlan[[#Headers],[Task]],1,0,ROW()-1))</f>
         <v>3</v>
@@ -3237,11 +3250,13 @@
         <v>55</v>
       </c>
       <c r="J13" s="26">
-        <v>1</v>
-      </c>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <f ca="1">COUNTA(OFFSET(tblPlan[[#Headers],[Task]],1,0,ROW()-1))</f>
         <v>3</v>
@@ -3268,9 +3283,11 @@
         <v>55</v>
       </c>
       <c r="J14" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -3299,7 +3316,7 @@
       <c r="J15" s="26"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <f ca="1">COUNTA(OFFSET(tblPlan[[#Headers],[Task]],1,0,ROW()-1))</f>
         <v>4</v>
@@ -3326,11 +3343,13 @@
         <v>55</v>
       </c>
       <c r="J16" s="26">
-        <v>1</v>
-      </c>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <f ca="1">COUNTA(OFFSET(tblPlan[[#Headers],[Task]],1,0,ROW()-1))</f>
         <v>4</v>
@@ -3357,9 +3376,11 @@
         <v>55</v>
       </c>
       <c r="J17" s="26">
-        <v>1</v>
-      </c>
-      <c r="K17" s="24"/>
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -3388,7 +3409,7 @@
         <v>55</v>
       </c>
       <c r="J18" s="26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K18" s="24"/>
     </row>
@@ -3512,7 +3533,7 @@
         <v>55</v>
       </c>
       <c r="J22" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="24"/>
     </row>
@@ -3601,7 +3622,7 @@
         <v>55</v>
       </c>
       <c r="J25" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="24"/>
     </row>
@@ -3725,7 +3746,7 @@
         <v>55</v>
       </c>
       <c r="J29" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="24"/>
     </row>
@@ -3783,7 +3804,7 @@
         <v>34</v>
       </c>
       <c r="J31" s="26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K31" s="24"/>
     </row>
@@ -3814,7 +3835,7 @@
         <v>34</v>
       </c>
       <c r="J32" s="26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -3845,7 +3866,7 @@
         <v>29</v>
       </c>
       <c r="J33" s="26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K33" s="24"/>
     </row>
@@ -3903,11 +3924,11 @@
         <v>34</v>
       </c>
       <c r="J35" s="26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <f ca="1">COUNTA(OFFSET(tblPlan[[#Headers],[Task]],1,0,ROW()-1))</f>
         <v>7</v>
@@ -3936,7 +3957,9 @@
       <c r="J36" s="26">
         <v>0.8</v>
       </c>
-      <c r="K36" s="24"/>
+      <c r="K36" s="24" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
@@ -3992,7 +4015,7 @@
         <v>29</v>
       </c>
       <c r="J38" s="26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K38" s="24"/>
     </row>
@@ -4023,11 +4046,11 @@
         <v>34</v>
       </c>
       <c r="J39" s="26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <f ca="1">COUNTA(OFFSET(tblPlan[[#Headers],[Task]],1,0,ROW()-1))</f>
         <v>8</v>
@@ -4056,9 +4079,11 @@
       <c r="J40" s="26">
         <v>0.8</v>
       </c>
-      <c r="K40" s="24"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K40" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <f ca="1">COUNTA(OFFSET(tblPlan[[#Headers],[Task]],1,0,ROW()-1))</f>
         <v>8</v>
@@ -4087,7 +4112,9 @@
       <c r="J41" s="26">
         <v>0.8</v>
       </c>
-      <c r="K41" s="24"/>
+      <c r="K41" s="24" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
@@ -4352,12 +4379,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Ff3/vy1CQrWHbK51b9erxfPJIfA9yIq1fM0vUqD2JEsYJWpckJc9+mMkyiNBR0kjDnLJbSXiOYeD75PhSZSp5w==" saltValue="B1FBsWn82PA8znCP9LieZw==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="A21:J21 A2:K20 A22:K32 A33:J34 A35:K49">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="37" priority="6">
       <formula>$D2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G49">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="36" priority="5">
       <formula>AND($G2&lt;&gt;"",WEEKDAY($G2,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4376,7 +4403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>$D17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/mCovid Plan.xlsx
+++ b/mCovid Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/Documents/NMB/ga-mcovid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C69BF6-19C8-4841-9D2F-6C3717777D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FCBC6-C7B3-6945-B3E5-59C4A6FBE129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="460" windowWidth="23900" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
   <si>
     <t>Project</t>
   </si>
@@ -297,22 +297,13 @@
     <t>API chưa có</t>
   </si>
   <si>
-    <t>Group chưa được cập nhật.</t>
-  </si>
-  <si>
-    <t>API pagination có vấn đề(take: 5, skip: 0) chỉ có 4 record</t>
-  </si>
-  <si>
-    <t>Chưa có enroll</t>
-  </si>
-  <si>
-    <t>Chưa có edit user</t>
-  </si>
-  <si>
-    <t>Chưa check</t>
-  </si>
-  <si>
     <t>Chưa có</t>
+  </si>
+  <si>
+    <t>Group chưa được cập nhật (API)</t>
+  </si>
+  <si>
+    <t>API chưa có search</t>
   </si>
 </sst>
 </file>
@@ -2845,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3130,7 +3121,7 @@
         <v>29</v>
       </c>
       <c r="J9" s="26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K9" s="24"/>
     </row>
@@ -3250,10 +3241,10 @@
         <v>55</v>
       </c>
       <c r="J13" s="26">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3316,7 +3307,7 @@
       <c r="J15" s="26"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <f ca="1">COUNTA(OFFSET(tblPlan[[#Headers],[Task]],1,0,ROW()-1))</f>
         <v>4</v>
@@ -3343,13 +3334,11 @@
         <v>55</v>
       </c>
       <c r="J16" s="26">
-        <v>0.95</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <f ca="1">COUNTA(OFFSET(tblPlan[[#Headers],[Task]],1,0,ROW()-1))</f>
         <v>4</v>
@@ -3376,11 +3365,9 @@
         <v>55</v>
       </c>
       <c r="J17" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>90</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -3928,7 +3915,7 @@
       </c>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <f ca="1">COUNTA(OFFSET(tblPlan[[#Headers],[Task]],1,0,ROW()-1))</f>
         <v>7</v>
@@ -3955,11 +3942,9 @@
         <v>34</v>
       </c>
       <c r="J36" s="26">
-        <v>0.8</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>91</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K36" s="24"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
@@ -4050,7 +4035,7 @@
       </c>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <f ca="1">COUNTA(OFFSET(tblPlan[[#Headers],[Task]],1,0,ROW()-1))</f>
         <v>8</v>
@@ -4077,11 +4062,9 @@
         <v>34</v>
       </c>
       <c r="J40" s="26">
-        <v>0.8</v>
-      </c>
-      <c r="K40" s="24" t="s">
-        <v>92</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
@@ -4113,7 +4096,7 @@
         <v>0.8</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -4290,7 +4273,7 @@
       </c>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
         <f ca="1">COUNTA(OFFSET(tblPlan[[#Headers],[Task]],1,0,ROW()-1))</f>
         <v>10</v>
@@ -4317,9 +4300,11 @@
         <v>55</v>
       </c>
       <c r="J48" s="26">
-        <v>0</v>
-      </c>
-      <c r="K48" s="24"/>
+        <v>0.9</v>
+      </c>
+      <c r="K48" s="24" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
@@ -4378,7 +4363,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Ff3/vy1CQrWHbK51b9erxfPJIfA9yIq1fM0vUqD2JEsYJWpckJc9+mMkyiNBR0kjDnLJbSXiOYeD75PhSZSp5w==" saltValue="B1FBsWn82PA8znCP9LieZw==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <conditionalFormatting sqref="A21:J21 A2:K20 A22:K32 A33:J34 A35:K49">
+  <conditionalFormatting sqref="A21:J21 A22:K32 A33:J34 A35:K49 A2:K20">
     <cfRule type="expression" dxfId="37" priority="6">
       <formula>$D2&lt;&gt;""</formula>
     </cfRule>

--- a/mCovid Plan.xlsx
+++ b/mCovid Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/Documents/NMB/ga-mcovid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FCBC6-C7B3-6945-B3E5-59C4A6FBE129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F4E7F4-64D7-5A42-9237-9BBAF56D3F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="460" windowWidth="23900" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
   <si>
     <t>Project</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t>API chưa có</t>
-  </si>
-  <si>
-    <t>Chưa có</t>
   </si>
   <si>
     <t>Group chưa được cập nhật (API)</t>
@@ -2836,8 +2833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3244,7 +3241,7 @@
         <v>0.95</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4066,7 +4063,7 @@
       </c>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <f ca="1">COUNTA(OFFSET(tblPlan[[#Headers],[Task]],1,0,ROW()-1))</f>
         <v>8</v>
@@ -4093,11 +4090,9 @@
         <v>34</v>
       </c>
       <c r="J41" s="26">
-        <v>0.8</v>
-      </c>
-      <c r="K41" s="24" t="s">
-        <v>88</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
@@ -4123,7 +4118,9 @@
         <v/>
       </c>
       <c r="I42" s="16"/>
-      <c r="J42" s="26"/>
+      <c r="J42" s="26">
+        <v>0</v>
+      </c>
       <c r="K42" s="24"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -4303,7 +4300,7 @@
         <v>0.9</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
